--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYs Stuff\School Stuff\Uni\Y3 Sem 2\CS3243 Intro to AI\Projects\Project 1\K-Puzzle\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYs Stuff\School Stuff\Uni\Y3 Sem 2\CS3243 Intro to AI\Projects\K-Puzzle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB8847-0CA7-4368-8AB9-5EEE86C5BAED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0119C3B-2DA7-4996-AC45-A6346D353906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="3" r:id="rId1"/>
-    <sheet name="Space" sheetId="1" r:id="rId2"/>
+    <sheet name="Space" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>3x3</t>
   </si>
@@ -61,9 +61,6 @@
     <t>3x3 A*(h3)</t>
   </si>
   <si>
-    <t>4x4 BFS</t>
-  </si>
-  <si>
     <t>4x4 A*(h1)</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>4x4 A*(h3)</t>
-  </si>
-  <si>
-    <t>5x5 BFS</t>
   </si>
   <si>
     <t>5x5 A*(h1)</t>
@@ -206,6 +200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,15 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 BFS</c:v>
+                  <c:v>4x4 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,7 +985,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h1)</c:v>
+                  <c:v>4x4 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1126,7 +1120,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h2)</c:v>
+                  <c:v>4x4 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1267,7 +1261,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h3)</c:v>
+                  <c:v>5x5 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1408,7 +1402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 BFS</c:v>
+                  <c:v>5x5 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1549,7 +1543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h1)</c:v>
+                  <c:v>5x5 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1678,288 +1672,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-3553-4DD7-9A37-DB11463035F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5x5 A*(h2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Time!$N$5:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.96636764160000055</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.697308774400005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.27577896960004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>704.48201072640029</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6340.3380965376036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57063.042868838442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>513567.38581954577</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4622106.4723759135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41598958.251383215</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>134217728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>134217728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3553-4DD7-9A37-DB11463035F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5x5 A*(h3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Time!$O$5:$O$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.77309411328000044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9578470195200044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.620623175680038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>563.58560858112025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5072.2704772300831</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45650.434295070758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>410853.90865563665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3697685.1779007311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33279166.601106573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-3553-4DD7-9A37-DB11463035F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2388,7 +2100,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000000-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2523,7 +2235,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000001-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2658,7 +2370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000002-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2793,7 +2505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000003-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2806,7 +2518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 BFS</c:v>
+                  <c:v>4x4 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2928,7 +2640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000004-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2941,7 +2653,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h1)</c:v>
+                  <c:v>4x4 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,7 +2775,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000005-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3076,7 +2788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h2)</c:v>
+                  <c:v>4x4 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3204,7 +2916,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000006-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3217,7 +2929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h3)</c:v>
+                  <c:v>5x5 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3345,7 +3057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000007-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3358,7 +3070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 BFS</c:v>
+                  <c:v>5x5 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3486,7 +3198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000008-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3499,7 +3211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h1)</c:v>
+                  <c:v>5x5 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3627,289 +3339,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8FF6-4036-91E2-15B36809AF58}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Space!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5x5 A*(h2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Space!$N$5:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.96636764160000055</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.697308774400005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.27577896960004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>704.48201072640029</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6340.3380965376036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57063.042868838442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>513567.38581954577</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4622106.4723759135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41598958.251383215</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>134217728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>134217728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-8FF6-4036-91E2-15B36809AF58}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Space!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5x5 A*(h3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Space!$O$5:$O$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.77309411328000044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9578470195200044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.620623175680038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>563.58560858112025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5072.2704772300831</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45650.434295070758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>410853.90865563665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3697685.1779007311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33279166.601106573</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>107374182.40000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-8FF6-4036-91E2-15B36809AF58}"/>
+              <c16:uniqueId val="{00000009-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5258,10 +4688,10 @@
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5298,24 +4728,26 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2241031C-FCD7-4F69-8762-62700A20FA5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E89690C-6A67-430F-B9AA-F90A39AD74A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5595,49 +5027,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7851F-C67A-467E-BE4A-E18FD05F6A13}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6.85546875" style="1"/>
-    <col min="4" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="6.85546875" style="1"/>
+    <col min="4" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="6.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5671,705 +5104,598 @@
       <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <f>3^C5</f>
         <v>9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <f>D5*0.8</f>
         <v>7.2</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:O5" si="0">E5*0.8</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:M5" si="0">E5*0.8</f>
         <v>5.7600000000000007</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>4.6080000000000005</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H16" si="1">G5*0.8</f>
         <v>3.6864000000000008</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="0"/>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I16" si="2">H5*0.8</f>
         <v>2.9491200000000006</v>
       </c>
-      <c r="J5" s="10">
-        <f t="shared" si="0"/>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J16" si="3">I5*0.8</f>
         <v>2.3592960000000005</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" si="0"/>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K16" si="4">J5*0.8</f>
         <v>1.8874368000000006</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" si="0"/>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L16" si="5">K5*0.8</f>
         <v>1.5099494400000006</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
+      <c r="M5" s="7">
+        <f t="shared" ref="M5:M16" si="6">L5*0.8</f>
         <v>1.2079595520000006</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.96636764160000055</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.77309411328000044</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" ref="D6:D13" si="1">3^C6</f>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:D13" si="7">3^C6</f>
         <v>81</v>
       </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:O16" si="2">D6*0.8</f>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:M16" si="8">D6*0.8</f>
         <v>64.8</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="2"/>
+      <c r="F6" s="7">
+        <f t="shared" si="8"/>
         <v>51.84</v>
       </c>
-      <c r="G6" s="10">
-        <f t="shared" si="2"/>
+      <c r="G6" s="7">
+        <f t="shared" si="8"/>
         <v>41.472000000000008</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="2"/>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
         <v>33.177600000000005</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <f t="shared" si="2"/>
         <v>26.542080000000006</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
         <v>21.233664000000005</v>
       </c>
-      <c r="K6" s="10">
-        <f t="shared" si="2"/>
+      <c r="K6" s="7">
+        <f t="shared" si="4"/>
         <v>16.986931200000004</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="2"/>
+      <c r="L6" s="7">
+        <f t="shared" si="5"/>
         <v>13.589544960000005</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="2"/>
+      <c r="M6" s="7">
+        <f t="shared" si="6"/>
         <v>10.871635968000005</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="2"/>
-        <v>8.697308774400005</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="2"/>
-        <v>6.9578470195200044</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
+        <f t="shared" si="7"/>
+        <v>729</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="8"/>
+        <v>583.20000000000005</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="8"/>
+        <v>466.56000000000006</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="8"/>
+        <v>373.24800000000005</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>729</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="2"/>
-        <v>583.20000000000005</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="2"/>
-        <v>466.56000000000006</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="2"/>
-        <v>373.24800000000005</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="2"/>
         <v>298.59840000000003</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <f t="shared" si="2"/>
         <v>238.87872000000004</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
         <v>191.10297600000004</v>
       </c>
-      <c r="K7" s="10">
-        <f t="shared" si="2"/>
+      <c r="K7" s="7">
+        <f t="shared" si="4"/>
         <v>152.88238080000005</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="2"/>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
         <v>122.30590464000005</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="2"/>
+      <c r="M7" s="7">
+        <f t="shared" si="6"/>
         <v>97.844723712000047</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="2"/>
-        <v>78.27577896960004</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="2"/>
-        <v>62.620623175680038</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
+        <f t="shared" si="7"/>
+        <v>6561</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="8"/>
+        <v>5248.8</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="8"/>
+        <v>4199.04</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="8"/>
+        <v>3359.232</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>6561</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="2"/>
-        <v>5248.8</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="2"/>
-        <v>4199.04</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="2"/>
-        <v>3359.232</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
         <v>2687.3856000000001</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>2149.9084800000001</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
         <v>1719.9267840000002</v>
       </c>
-      <c r="K8" s="10">
-        <f t="shared" si="2"/>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
         <v>1375.9414272000004</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="2"/>
+      <c r="L8" s="7">
+        <f t="shared" si="5"/>
         <v>1100.7531417600003</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="2"/>
+      <c r="M8" s="7">
+        <f t="shared" si="6"/>
         <v>880.60251340800028</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="2"/>
-        <v>704.48201072640029</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="2"/>
-        <v>563.58560858112025</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
+        <f t="shared" si="7"/>
+        <v>59049</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="8"/>
+        <v>47239.200000000004</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="8"/>
+        <v>37791.360000000008</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="8"/>
+        <v>30233.088000000007</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>59049</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="2"/>
-        <v>47239.200000000004</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="2"/>
-        <v>37791.360000000008</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="2"/>
-        <v>30233.088000000007</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
         <v>24186.470400000006</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>19349.176320000006</v>
       </c>
-      <c r="J9" s="10">
-        <f t="shared" si="2"/>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
         <v>15479.341056000005</v>
       </c>
-      <c r="K9" s="10">
-        <f t="shared" si="2"/>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
         <v>12383.472844800004</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="2"/>
+      <c r="L9" s="7">
+        <f t="shared" si="5"/>
         <v>9906.7782758400044</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="2"/>
+      <c r="M9" s="7">
+        <f t="shared" si="6"/>
         <v>7925.4226206720041</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="2"/>
-        <v>6340.3380965376036</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="2"/>
-        <v>5072.2704772300831</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
+        <f t="shared" si="7"/>
+        <v>531441</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="8"/>
+        <v>425152.80000000005</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="8"/>
+        <v>340122.24000000005</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="8"/>
+        <v>272097.79200000007</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>531441</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="2"/>
-        <v>425152.80000000005</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="2"/>
-        <v>340122.24000000005</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>272097.79200000007</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="2"/>
         <v>217678.23360000007</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <f t="shared" si="2"/>
         <v>174142.58688000008</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="2"/>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
         <v>139314.06950400007</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" si="2"/>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
         <v>111451.25560320006</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="2"/>
+      <c r="L10" s="7">
+        <f t="shared" si="5"/>
         <v>89161.004482560049</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="2"/>
+      <c r="M10" s="7">
+        <f t="shared" si="6"/>
         <v>71328.803586048045</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="2"/>
-        <v>57063.042868838442</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="2"/>
-        <v>45650.434295070758</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>14</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
+        <f t="shared" si="7"/>
+        <v>4782969</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="8"/>
+        <v>3826375.2</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="8"/>
+        <v>3061100.16</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="8"/>
+        <v>2448880.128</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>4782969</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="2"/>
-        <v>3826375.2</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="2"/>
-        <v>3061100.16</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="2"/>
-        <v>2448880.128</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="2"/>
         <v>1959104.1024000002</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <f t="shared" si="2"/>
         <v>1567283.2819200002</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" si="2"/>
+      <c r="J11" s="7">
+        <f t="shared" si="3"/>
         <v>1253826.6255360001</v>
       </c>
-      <c r="K11" s="10">
-        <f t="shared" si="2"/>
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
         <v>1003061.3004288002</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="2"/>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
         <v>802449.04034304013</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="2"/>
+      <c r="M11" s="7">
+        <f t="shared" si="6"/>
         <v>641959.2322744322</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="2"/>
-        <v>513567.38581954577</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="2"/>
-        <v>410853.90865563665</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>16</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
+        <f t="shared" si="7"/>
+        <v>43046721</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="8"/>
+        <v>34437376.800000004</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="8"/>
+        <v>27549901.440000005</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="8"/>
+        <v>22039921.152000006</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>43046721</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="2"/>
-        <v>34437376.800000004</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="2"/>
-        <v>27549901.440000005</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="2"/>
-        <v>22039921.152000006</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="2"/>
         <v>17631936.921600007</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <f t="shared" si="2"/>
         <v>14105549.537280006</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
         <v>11284439.629824005</v>
       </c>
-      <c r="K12" s="10">
-        <f t="shared" si="2"/>
+      <c r="K12" s="7">
+        <f t="shared" si="4"/>
         <v>9027551.7038592044</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="2"/>
+      <c r="L12" s="7">
+        <f t="shared" si="5"/>
         <v>7222041.3630873635</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="2"/>
+      <c r="M12" s="7">
+        <f t="shared" si="6"/>
         <v>5777633.0904698912</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="2"/>
-        <v>4622106.4723759135</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>3697685.1779007311</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
+        <f t="shared" si="7"/>
+        <v>387420489</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="8"/>
+        <v>309936391.19999999</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="8"/>
+        <v>247949112.96000001</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="8"/>
+        <v>198359290.36800003</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>387420489</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="2"/>
-        <v>309936391.19999999</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="2"/>
-        <v>247949112.96000001</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="2"/>
-        <v>198359290.36800003</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="2"/>
         <v>158687432.29440004</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <f t="shared" si="2"/>
         <v>126949945.83552003</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="2"/>
+      <c r="J13" s="7">
+        <f t="shared" si="3"/>
         <v>101559956.66841602</v>
       </c>
-      <c r="K13" s="10">
-        <f t="shared" si="2"/>
+      <c r="K13" s="7">
+        <f t="shared" si="4"/>
         <v>81247965.334732831</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
         <v>64998372.267786264</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" si="2"/>
+      <c r="M13" s="7">
+        <f t="shared" si="6"/>
         <v>51998697.814229012</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="2"/>
-        <v>41598958.251383215</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>33279166.601106573</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="2"/>
+      <c r="F14" s="7">
+        <f t="shared" si="8"/>
         <v>800000000</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="2"/>
+      <c r="G14" s="7">
+        <f t="shared" si="8"/>
         <v>640000000</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
         <v>512000000</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <f t="shared" si="2"/>
         <v>409600000</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
+      <c r="J14" s="7">
+        <f t="shared" si="3"/>
         <v>327680000</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" si="2"/>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
         <v>262144000</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="2"/>
+      <c r="L14" s="7">
+        <f t="shared" si="5"/>
         <v>209715200</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="2"/>
+      <c r="M14" s="7">
+        <f t="shared" si="6"/>
         <v>167772160</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="2"/>
-        <v>134217728</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="2"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>22</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="2"/>
+      <c r="F15" s="7">
+        <f t="shared" si="8"/>
         <v>800000000</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" si="2"/>
+      <c r="G15" s="7">
+        <f t="shared" si="8"/>
         <v>640000000</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
         <v>512000000</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <f t="shared" si="2"/>
         <v>409600000</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
+      <c r="J15" s="7">
+        <f t="shared" si="3"/>
         <v>327680000</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="2"/>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
         <v>262144000</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="2"/>
+      <c r="L15" s="7">
+        <f t="shared" si="5"/>
         <v>209715200</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="2"/>
+      <c r="M15" s="7">
+        <f t="shared" si="6"/>
         <v>167772160</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="2"/>
-        <v>134217728</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="2"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>24</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="2"/>
+      <c r="F16" s="7">
+        <f t="shared" si="8"/>
         <v>800000000</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="2"/>
+      <c r="G16" s="7">
+        <f t="shared" si="8"/>
         <v>640000000</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
         <v>512000000</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <f t="shared" si="2"/>
         <v>409600000</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="2"/>
+      <c r="J16" s="7">
+        <f t="shared" si="3"/>
         <v>327680000</v>
       </c>
-      <c r="K16" s="10">
-        <f t="shared" si="2"/>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
         <v>262144000</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="2"/>
+      <c r="L16" s="7">
+        <f t="shared" si="5"/>
         <v>209715200</v>
       </c>
-      <c r="M16" s="10">
-        <f t="shared" si="2"/>
+      <c r="M16" s="7">
+        <f t="shared" si="6"/>
         <v>167772160</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="2"/>
-        <v>134217728</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="2"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6378,50 +5704,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252759C0-5260-4DB3-822F-7F843478F438}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6.85546875" style="1"/>
-    <col min="4" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="6.85546875" style="1"/>
+    <col min="4" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="6.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -6455,700 +5782,598 @@
       <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <f>3^C5</f>
         <v>9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <f>D5*0.8</f>
         <v>7.2</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:O5" si="0">E5*0.8</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:M16" si="0">E5*0.8</f>
         <v>5.7600000000000007</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>4.6080000000000005</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>3.6864000000000008</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>2.9491200000000006</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>2.3592960000000005</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>1.8874368000000006</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <f t="shared" si="0"/>
         <v>1.5099494400000006</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <f t="shared" si="0"/>
         <v>1.2079595520000006</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.96636764160000055</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.77309411328000044</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" ref="D6:D16" si="1">3^C6</f>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:D13" si="1">3^C6</f>
         <v>81</v>
       </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:O6" si="2">D6*0.8</f>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:G16" si="2">D6*0.8</f>
         <v>64.8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f t="shared" si="2"/>
         <v>51.84</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>41.472000000000008</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="2"/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
         <v>33.177600000000005</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
         <v>26.542080000000006</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
         <v>21.233664000000005</v>
       </c>
-      <c r="K6" s="10">
-        <f t="shared" si="2"/>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
         <v>16.986931200000004</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="2"/>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
         <v>13.589544960000005</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="2"/>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
         <v>10.871635968000005</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="2"/>
-        <v>8.697308774400005</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="2"/>
-        <v>6.9578470195200044</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:O7" si="3">D7*0.8</f>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
         <v>583.20000000000005</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="3"/>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
         <v>466.56000000000006</v>
       </c>
-      <c r="G7" s="10">
-        <f t="shared" si="3"/>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
         <v>373.24800000000005</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="3"/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
         <v>298.59840000000003</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="3"/>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
         <v>238.87872000000004</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="3"/>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
         <v>191.10297600000004</v>
       </c>
-      <c r="K7" s="10">
-        <f t="shared" si="3"/>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
         <v>152.88238080000005</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="3"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
         <v>122.30590464000005</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="3"/>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
         <v>97.844723712000047</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="3"/>
-        <v>78.27577896960004</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="3"/>
-        <v>62.620623175680038</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>6561</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" ref="E8:O8" si="4">D8*0.8</f>
+      <c r="E8" s="7">
+        <f t="shared" si="2"/>
         <v>5248.8</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="4"/>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
         <v>4199.04</v>
       </c>
-      <c r="G8" s="10">
-        <f t="shared" si="4"/>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
         <v>3359.232</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" si="4"/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
         <v>2687.3856000000001</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="4"/>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
         <v>2149.9084800000001</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="4"/>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
         <v>1719.9267840000002</v>
       </c>
-      <c r="K8" s="10">
-        <f t="shared" si="4"/>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
         <v>1375.9414272000004</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="4"/>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
         <v>1100.7531417600003</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="4"/>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
         <v>880.60251340800028</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="4"/>
-        <v>704.48201072640029</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="4"/>
-        <v>563.58560858112025</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>59049</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" ref="E9:O9" si="5">D9*0.8</f>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
         <v>47239.200000000004</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="5"/>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
         <v>37791.360000000008</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" si="5"/>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
         <v>30233.088000000007</v>
       </c>
-      <c r="H9" s="10">
-        <f t="shared" si="5"/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>24186.470400000006</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="5"/>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
         <v>19349.176320000006</v>
       </c>
-      <c r="J9" s="10">
-        <f t="shared" si="5"/>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
         <v>15479.341056000005</v>
       </c>
-      <c r="K9" s="10">
-        <f t="shared" si="5"/>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
         <v>12383.472844800004</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="5"/>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
         <v>9906.7782758400044</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="5"/>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
         <v>7925.4226206720041</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="5"/>
-        <v>6340.3380965376036</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="5"/>
-        <v>5072.2704772300831</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>531441</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" ref="E10:O10" si="6">D10*0.8</f>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
         <v>425152.80000000005</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="6"/>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
         <v>340122.24000000005</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="6"/>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
         <v>272097.79200000007</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" si="6"/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
         <v>217678.23360000007</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="6"/>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
         <v>174142.58688000008</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="6"/>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
         <v>139314.06950400007</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" si="6"/>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
         <v>111451.25560320006</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="6"/>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
         <v>89161.004482560049</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="6"/>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
         <v>71328.803586048045</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="6"/>
-        <v>57063.042868838442</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="6"/>
-        <v>45650.434295070758</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>14</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>4782969</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" ref="E11:O11" si="7">D11*0.8</f>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
         <v>3826375.2</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="7"/>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
         <v>3061100.16</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="7"/>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
         <v>2448880.128</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" si="7"/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
         <v>1959104.1024000002</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="7"/>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
         <v>1567283.2819200002</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" si="7"/>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
         <v>1253826.6255360001</v>
       </c>
-      <c r="K11" s="10">
-        <f t="shared" si="7"/>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
         <v>1003061.3004288002</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="7"/>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
         <v>802449.04034304013</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="7"/>
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
         <v>641959.2322744322</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="7"/>
-        <v>513567.38581954577</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="7"/>
-        <v>410853.90865563665</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>16</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>43046721</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:O12" si="8">D12*0.8</f>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
         <v>34437376.800000004</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="8"/>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
         <v>27549901.440000005</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="8"/>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
         <v>22039921.152000006</v>
       </c>
-      <c r="H12" s="10">
-        <f t="shared" si="8"/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
         <v>17631936.921600007</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="8"/>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
         <v>14105549.537280006</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="8"/>
+      <c r="J12" s="7">
+        <f t="shared" si="0"/>
         <v>11284439.629824005</v>
       </c>
-      <c r="K12" s="10">
-        <f t="shared" si="8"/>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
         <v>9027551.7038592044</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="8"/>
+      <c r="L12" s="7">
+        <f t="shared" si="0"/>
         <v>7222041.3630873635</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="8"/>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
         <v>5777633.0904698912</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="8"/>
-        <v>4622106.4723759135</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="8"/>
-        <v>3697685.1779007311</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>387420489</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:O13" si="9">D13*0.8</f>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
         <v>309936391.19999999</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="9"/>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
         <v>247949112.96000001</v>
       </c>
-      <c r="G13" s="10">
-        <f t="shared" si="9"/>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
         <v>198359290.36800003</v>
       </c>
-      <c r="H13" s="10">
-        <f t="shared" si="9"/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
         <v>158687432.29440004</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="9"/>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
         <v>126949945.83552003</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="9"/>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
         <v>101559956.66841602</v>
       </c>
-      <c r="K13" s="10">
-        <f t="shared" si="9"/>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
         <v>81247965.334732831</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="9"/>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
         <v>64998372.267786264</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" si="9"/>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
         <v>51998697.814229012</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="9"/>
-        <v>41598958.251383215</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="9"/>
-        <v>33279166.601106573</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:O14" si="10">E14*0.8</f>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
         <v>800000000</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="10"/>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
         <v>640000000</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" si="10"/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
         <v>512000000</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="10"/>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
         <v>409600000</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="10"/>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
         <v>327680000</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" si="10"/>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
         <v>262144000</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="10"/>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
         <v>209715200</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="10"/>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
         <v>167772160</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="10"/>
-        <v>134217728</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>22</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" ref="F15:O15" si="11">E15*0.8</f>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
         <v>800000000</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" si="11"/>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
         <v>640000000</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="11"/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
         <v>512000000</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="11"/>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
         <v>409600000</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="11"/>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
         <v>327680000</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="11"/>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
         <v>262144000</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="11"/>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
         <v>209715200</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="11"/>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
         <v>167772160</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="11"/>
-        <v>134217728</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="11"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>24</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:O16" si="12">E16*0.8</f>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
         <v>800000000</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="12"/>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
         <v>640000000</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="12"/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
         <v>512000000</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="12"/>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
         <v>409600000</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="12"/>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
         <v>327680000</v>
       </c>
-      <c r="K16" s="10">
-        <f t="shared" si="12"/>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
         <v>262144000</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="12"/>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
         <v>209715200</v>
       </c>
-      <c r="M16" s="10">
-        <f t="shared" si="12"/>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
         <v>167772160</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="12"/>
-        <v>134217728</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="12"/>
-        <v>107374182.40000001</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYs Stuff\School Stuff\Uni\Y3 Sem 2\CS3243 Intro to AI\Projects\K-Puzzle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0119C3B-2DA7-4996-AC45-A6346D353906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A09C90B-C82E-45A5-876D-6022725114CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Time" sheetId="3" r:id="rId1"/>
+    <sheet name="Time" sheetId="5" r:id="rId1"/>
     <sheet name="Space" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>3x3</t>
   </si>
@@ -84,11 +84,17 @@
   <si>
     <t>To save as picture: copypaste into PowerPoint, then right click &gt; Save As (.png)</t>
   </si>
+  <si>
+    <t>#Trials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,48 +148,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,13 +178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,9 +235,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Seconds Taken</a:t>
+              <a:rPr lang="en-SG" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Time Taken (ms)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-SG"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -311,132 +280,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3x3 BFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Time!$D$5:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59049</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>531441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4782969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43046721</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>387420489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3553-4DD7-9A37-DB11463035F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -445,7 +288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h1)</c:v>
+                  <c:v>3x3 BFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -476,10 +319,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -509,57 +352,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$E$5:$E$16</c:f>
+              <c:f>Time!$E$5:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.8</c:v>
+                  <c:v>1.018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>583.20000000000005</c:v>
+                  <c:v>3.5649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5248.8</c:v>
+                  <c:v>9.1509999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47239.200000000004</c:v>
+                  <c:v>28.641999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425152.80000000005</c:v>
+                  <c:v>74.519000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3826375.2</c:v>
+                  <c:v>211.846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34437376.800000004</c:v>
+                  <c:v>534.12099999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>309936391.19999999</c:v>
+                  <c:v>1622.5170000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000000000</c:v>
+                  <c:v>3932.7840000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +398,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000001-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -580,7 +411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h2)</c:v>
+                  <c:v>3x3 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -611,10 +442,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -644,57 +475,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$F$5:$F$16</c:f>
+              <c:f>Time!$F$5:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.7600000000000007</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.84</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>466.56000000000006</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4199.04</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37791.360000000008</c:v>
+                  <c:v>0.96899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>340122.24000000005</c:v>
+                  <c:v>1.498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3061100.16</c:v>
+                  <c:v>2.6419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27549901.440000005</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>247949112.96000001</c:v>
+                  <c:v>9.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>800000000</c:v>
+                  <c:v>18.844000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000002-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -715,7 +534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h3)</c:v>
+                  <c:v>3x3 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -746,10 +565,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -779,57 +598,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$G$5:$G$16</c:f>
+              <c:f>Time!$G$5:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.6080000000000005</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.472000000000008</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.24800000000005</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3359.232</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30233.088000000007</c:v>
+                  <c:v>2.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272097.79200000007</c:v>
+                  <c:v>4.3680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2448880.128</c:v>
+                  <c:v>10.992000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22039921.152000006</c:v>
+                  <c:v>24.747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>198359290.36800003</c:v>
+                  <c:v>69.180999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>640000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>640000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>640000000</c:v>
+                  <c:v>155.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,7 +644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000003-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -850,7 +657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h1)</c:v>
+                  <c:v>3x3 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -881,10 +688,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -914,57 +721,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$H$5:$H$16</c:f>
+              <c:f>Time!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.6864000000000008</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.177600000000005</c:v>
+                  <c:v>0.88900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298.59840000000003</c:v>
+                  <c:v>1.266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2687.3856000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24186.470400000006</c:v>
+                  <c:v>2.2330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217678.23360000007</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1959104.1024000002</c:v>
+                  <c:v>4.7309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17631936.921600007</c:v>
+                  <c:v>6.4459999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>158687432.29440004</c:v>
+                  <c:v>12.766999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>512000000</c:v>
+                  <c:v>22.978000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,142 +767,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3553-4DD7-9A37-DB11463035F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4x4 A*(h2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Time!$I$5:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.9491200000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.542080000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>238.87872000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2149.9084800000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19349.176320000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>174142.58688000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1567283.2819200002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14105549.537280006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126949945.83552003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>409600000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>409600000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>409600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000004-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1120,7 +780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h3)</c:v>
+                  <c:v>4x4 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1157,10 +817,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1190,57 +850,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$J$5:$J$16</c:f>
+              <c:f>Time!$J$5:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3592960000000005</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.233664000000005</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.10297600000004</c:v>
+                  <c:v>0.753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1719.9267840000002</c:v>
+                  <c:v>1.012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15479.341056000005</c:v>
+                  <c:v>1.3819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139314.06950400007</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1253826.6255360001</c:v>
+                  <c:v>2.851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11284439.629824005</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101559956.66841602</c:v>
+                  <c:v>7.2519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>327680000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>327680000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>327680000</c:v>
+                  <c:v>10.093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000006-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h1)</c:v>
+                  <c:v>4x4 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1298,10 +946,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1331,57 +979,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$K$5:$K$16</c:f>
+              <c:f>Time!$K$5:$K$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8874368000000006</c:v>
+                  <c:v>0.29699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.986931200000004</c:v>
+                  <c:v>0.49299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.88238080000005</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1375.9414272000004</c:v>
+                  <c:v>1.2649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12383.472844800004</c:v>
+                  <c:v>2.2549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111451.25560320006</c:v>
+                  <c:v>4.7910000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1003061.3004288002</c:v>
+                  <c:v>11.159000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9027551.7038592044</c:v>
+                  <c:v>30.341000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81247965.334732831</c:v>
+                  <c:v>76.262</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262144000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262144000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262144000</c:v>
+                  <c:v>182.04599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1025,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000007-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1402,7 +1038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h2)</c:v>
+                  <c:v>4x4 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1439,10 +1075,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1472,57 +1108,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$L$5:$L$16</c:f>
+              <c:f>Time!$L$5:$L$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5099494400000006</c:v>
+                  <c:v>0.90900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.589544960000005</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.30590464000005</c:v>
+                  <c:v>2.2509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1100.7531417600003</c:v>
+                  <c:v>3.0419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9906.7782758400044</c:v>
+                  <c:v>4.0789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89161.004482560049</c:v>
+                  <c:v>5.4560000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>802449.04034304013</c:v>
+                  <c:v>7.4939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7222041.3630873635</c:v>
+                  <c:v>11.023999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64998372.267786264</c:v>
+                  <c:v>15.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209715200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>209715200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>209715200</c:v>
+                  <c:v>19.236000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,20 +1154,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{00000008-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$M$4</c:f>
+              <c:f>Time!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h3)</c:v>
+                  <c:v>5x5 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,7 +1175,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1564,13 +1188,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1580,10 +1204,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$C$5:$C$16</c:f>
+              <c:f>Time!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1613,57 +1237,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$M$5:$M$16</c:f>
+              <c:f>Time!$N$5:$N$14</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2079595520000006</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.871635968000005</c:v>
+                  <c:v>0.76800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.844723712000047</c:v>
+                  <c:v>1.0620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880.60251340800028</c:v>
+                  <c:v>1.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7925.4226206720041</c:v>
+                  <c:v>1.855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71328.803586048045</c:v>
+                  <c:v>2.4369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641959.2322744322</c:v>
+                  <c:v>3.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5777633.0904698912</c:v>
+                  <c:v>5.1719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51998697.814229012</c:v>
+                  <c:v>9.0350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167772160</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>167772160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>167772160</c:v>
+                  <c:v>14.478999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1283,268 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3553-4DD7-9A37-DB11463035F4}"/>
+              <c16:uniqueId val="{0000000A-A4A4-469A-8B9D-51517F0BFA6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5 A*(h2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$O$5:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>227.58799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A4A4-469A-8B9D-51517F0BFA6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5 A*(h3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A4A4-469A-8B9D-51517F0BFA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1685,12 +1558,451 @@
         </c:dLbls>
         <c:axId val="430215312"/>
         <c:axId val="430215640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$D$5:$D$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1115</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1738</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2280</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2112</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1321</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>743</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>312</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A4A4-469A-8B9D-51517F0BFA6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$I$5:$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>528</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1337</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1831</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1989</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1786</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1266</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>720</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>284</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A4A4-469A-8B9D-51517F0BFA6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Time!$M$5:$M$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>478</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1039</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1578</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1925</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1891</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1396</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>872</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>469</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-A4A4-469A-8B9D-51517F0BFA6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="430215312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
+          <c:max val="20"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1754,9 +2066,8 @@
       <c:valAx>
         <c:axId val="430215640"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="3"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1774,7 +2085,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1933,7 +2244,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-SG"/>
-              <a:t>Number</a:t>
+              <a:t>Average Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-SG" baseline="0"/>
@@ -1979,132 +2290,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Space!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3x3 BFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Space!$D$5:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59049</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>531441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4782969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43046721</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>387420489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8295-42E2-8446-B6D7553FE897}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2113,7 +2298,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h1)</c:v>
+                  <c:v>3x3 BFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2144,10 +2329,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2177,57 +2362,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$E$5:$E$16</c:f>
+              <c:f>Space!$E$5:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.8</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>583.20000000000005</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5248.8</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47239.200000000004</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425152.80000000005</c:v>
+                  <c:v>2881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3826375.2</c:v>
+                  <c:v>7944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34437376.800000004</c:v>
+                  <c:v>19076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>309936391.19999999</c:v>
+                  <c:v>51102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000000000</c:v>
+                  <c:v>104154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2421,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h2)</c:v>
+                  <c:v>3x3 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2279,10 +2452,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2312,57 +2485,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$F$5:$F$16</c:f>
+              <c:f>Space!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.7600000000000007</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.84</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>466.56000000000006</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4199.04</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37791.360000000008</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>340122.24000000005</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3061100.16</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27549901.440000005</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>247949112.96000001</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>800000000</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,7 +2544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3 A*(h3)</c:v>
+                  <c:v>3x3 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2414,10 +2575,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2447,57 +2608,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$G$5:$G$16</c:f>
+              <c:f>Space!$G$5:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.6080000000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.472000000000008</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.24800000000005</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3359.232</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30233.088000000007</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272097.79200000007</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2448880.128</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22039921.152000006</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>198359290.36800003</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>640000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>640000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>640000000</c:v>
+                  <c:v>3850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h1)</c:v>
+                  <c:v>3x3 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2549,10 +2698,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2582,57 +2731,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$H$5:$H$16</c:f>
+              <c:f>Space!$H$5:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.6864000000000008</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.177600000000005</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298.59840000000003</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2687.3856000000001</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24186.470400000006</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217678.23360000007</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1959104.1024000002</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17631936.921600007</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>158687432.29440004</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>512000000</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2641,141 +2778,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8295-42E2-8446-B6D7553FE897}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Space!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4x4 A*(h2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Space!$I$5:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.9491200000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.542080000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>238.87872000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2149.9084800000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19349.176320000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>174142.58688000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1567283.2819200002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14105549.537280006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126949945.83552003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>409600000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>409600000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>409600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8295-42E2-8446-B6D7553FE897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2788,7 +2790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4x4 A*(h3)</c:v>
+                  <c:v>4x4 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,10 +2827,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2858,57 +2860,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$J$5:$J$16</c:f>
+              <c:f>Space!$J$5:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3592960000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.233664000000005</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.10297600000004</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1719.9267840000002</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15479.341056000005</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139314.06950400007</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1253826.6255360001</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11284439.629824005</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101559956.66841602</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>327680000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>327680000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>327680000</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,7 +2919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h1)</c:v>
+                  <c:v>4x4 A*(h2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2966,10 +2956,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2999,57 +2989,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$K$5:$K$16</c:f>
+              <c:f>Space!$K$5:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8874368000000006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.986931200000004</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.88238080000005</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1375.9414272000004</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12383.472844800004</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111451.25560320006</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1003061.3004288002</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9027551.7038592044</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81247965.334732831</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262144000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262144000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262144000</c:v>
+                  <c:v>4087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h2)</c:v>
+                  <c:v>4x4 A*(h3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3107,10 +3085,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3140,57 +3118,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$L$5:$L$16</c:f>
+              <c:f>Space!$L$5:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5099494400000006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.589544960000005</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.30590464000005</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1100.7531417600003</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9906.7782758400044</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89161.004482560049</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>802449.04034304013</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7222041.3630873635</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64998372.267786264</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209715200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>209715200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>209715200</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,15 +3169,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Space!$M$4</c:f>
+              <c:f>Space!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5 A*(h3)</c:v>
+                  <c:v>5x5 A*(h1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3219,7 +3185,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -3232,13 +3198,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -3248,10 +3214,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Space!$C$5:$C$16</c:f>
+              <c:f>Space!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3281,57 +3247,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Space!$M$5:$M$16</c:f>
+              <c:f>Space!$N$5:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2079595520000006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.871635968000005</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.844723712000047</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880.60251340800028</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7925.4226206720041</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71328.803586048045</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641959.2322744322</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5777633.0904698912</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51998697.814229012</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167772160</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>167772160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>167772160</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,7 +3293,268 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8295-42E2-8446-B6D7553FE897}"/>
+              <c16:uniqueId val="{00000000-3A0F-4E50-A6BE-DFE8D7514775}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Space!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5 A*(h2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Space!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Space!$O$5:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A0F-4E50-A6BE-DFE8D7514775}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Space!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5 A*(h3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Space!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Space!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A0F-4E50-A6BE-DFE8D7514775}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3353,12 +3568,451 @@
         </c:dLbls>
         <c:axId val="430215312"/>
         <c:axId val="430215640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$D$5:$D$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1115</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1738</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2280</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2112</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1321</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>743</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>312</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8295-42E2-8446-B6D7553FE897}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$I$5:$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>528</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1337</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1831</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1989</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1786</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1266</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>720</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>284</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-8295-42E2-8446-B6D7553FE897}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#Trials</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$C$5:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Space!$M$5:$M$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>478</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1039</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1578</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1925</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1891</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1396</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>872</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>469</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-8295-42E2-8446-B6D7553FE897}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="430215312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
+          <c:max val="20"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3422,9 +4076,9 @@
       <c:valAx>
         <c:axId val="430215640"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="3"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4682,13 +5336,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -4698,7 +5352,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0E5182-0BB5-4FF3-BD5D-57C406615723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630912BD-97A4-4A51-8E26-397BD6191A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,13 +5379,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -5026,676 +5680,683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7851F-C67A-467E-BE4A-E18FD05F6A13}">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763FCC6-D6E0-44DC-A79E-01E77844D864}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6.85546875" style="1"/>
-    <col min="4" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6.85546875" style="1"/>
+    <col min="1" max="4" width="6.85546875" style="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="6.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <f>3^C5</f>
-        <v>9</v>
-      </c>
-      <c r="E5" s="7">
-        <f>D5*0.8</f>
-        <v>7.2</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:M5" si="0">E5*0.8</f>
-        <v>5.7600000000000007</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6080000000000005</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5:H16" si="1">G5*0.8</f>
-        <v>3.6864000000000008</v>
+      <c r="D5" s="1">
+        <v>1115</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.441</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.57099999999999995</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I16" si="2">H5*0.8</f>
-        <v>2.9491200000000006</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" ref="J5:J16" si="3">I5*0.8</f>
-        <v>2.3592960000000005</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" ref="K5:K16" si="4">J5*0.8</f>
-        <v>1.8874368000000006</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" ref="L5:L16" si="5">K5*0.8</f>
-        <v>1.5099494400000006</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" ref="M5:M16" si="6">L5*0.8</f>
-        <v>1.2079595520000006</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+        <v>528</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M5" s="5">
+        <v>478</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.351</v>
+      </c>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:D13" si="7">3^C6</f>
-        <v>81</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" ref="E6:M16" si="8">D6*0.8</f>
-        <v>64.8</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="8"/>
-        <v>51.84</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="8"/>
-        <v>41.472000000000008</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>33.177600000000005</v>
+      <c r="D6" s="5">
+        <v>1738</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.018</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.88900000000000001</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>26.542080000000006</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="3"/>
-        <v>21.233664000000005</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="4"/>
-        <v>16.986931200000004</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="5"/>
-        <v>13.589544960000005</v>
+        <v>1337</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.62</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="6"/>
-        <v>10.871635968000005</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+        <v>1039</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.3889999999999998</v>
+      </c>
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="7"/>
-        <v>729</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="8"/>
-        <v>583.20000000000005</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="8"/>
-        <v>466.56000000000006</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="8"/>
-        <v>373.24800000000005</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="1"/>
-        <v>298.59840000000003</v>
+      <c r="D7" s="5">
+        <v>2280</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1.266</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>238.87872000000004</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="3"/>
-        <v>191.10297600000004</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="4"/>
-        <v>152.88238080000005</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="5"/>
-        <v>122.30590464000005</v>
+        <v>1831</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.753</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.752</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.2509999999999999</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="6"/>
-        <v>97.844723712000047</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+        <v>1578</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.012</v>
+      </c>
+      <c r="P7" s="9">
+        <v>3.4409999999999998</v>
+      </c>
       <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="7"/>
-        <v>6561</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="8"/>
-        <v>5248.8</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="8"/>
-        <v>4199.04</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="8"/>
-        <v>3359.232</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="1"/>
-        <v>2687.3856000000001</v>
+      <c r="D8" s="5">
+        <v>2112</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9.1509999999999998</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.68</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>2149.9084800000001</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>1719.9267840000002</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>1375.9414272000004</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="5"/>
-        <v>1100.7531417600003</v>
+        <v>1989</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.012</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3.0419999999999998</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="6"/>
-        <v>880.60251340800028</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+        <v>1925</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.589</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4.5949999999999998</v>
+      </c>
       <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="7"/>
-        <v>59049</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="8"/>
-        <v>47239.200000000004</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="8"/>
-        <v>37791.360000000008</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="8"/>
-        <v>30233.088000000007</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>24186.470400000006</v>
+      <c r="D9" s="5">
+        <v>1321</v>
+      </c>
+      <c r="E9" s="9">
+        <v>28.641999999999999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2.2330000000000001</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>19349.176320000006</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>15479.341056000005</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>12383.472844800004</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="5"/>
-        <v>9906.7782758400044</v>
+        <v>1786</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4.0789999999999997</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="6"/>
-        <v>7925.4226206720041</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+        <v>1891</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1.855</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="P9" s="9">
+        <v>6.1020000000000003</v>
+      </c>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="7"/>
-        <v>531441</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="8"/>
-        <v>425152.80000000005</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="8"/>
-        <v>340122.24000000005</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="8"/>
-        <v>272097.79200000007</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>217678.23360000007</v>
+      <c r="D10" s="5">
+        <v>743</v>
+      </c>
+      <c r="E10" s="9">
+        <v>74.519000000000005</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.498</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3.0939999999999999</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>174142.58688000008</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="3"/>
-        <v>139314.06950400007</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
-        <v>111451.25560320006</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="5"/>
-        <v>89161.004482560049</v>
+        <v>1266</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5.4560000000000004</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="6"/>
-        <v>71328.803586048045</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+        <v>1396</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="O10" s="9">
+        <v>5.2270000000000003</v>
+      </c>
+      <c r="P10" s="9">
+        <v>7.8840000000000003</v>
+      </c>
       <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="7"/>
-        <v>4782969</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="8"/>
-        <v>3826375.2</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="8"/>
-        <v>3061100.16</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="8"/>
-        <v>2448880.128</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="1"/>
-        <v>1959104.1024000002</v>
+      <c r="D11" s="5">
+        <v>312</v>
+      </c>
+      <c r="E11" s="9">
+        <v>211.846</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10.992000000000001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4.7309999999999999</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>1567283.2819200002</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="3"/>
-        <v>1253826.6255360001</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
-        <v>1003061.3004288002</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="5"/>
-        <v>802449.04034304013</v>
+        <v>720</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.851</v>
+      </c>
+      <c r="K11" s="9">
+        <v>11.159000000000001</v>
+      </c>
+      <c r="L11" s="9">
+        <v>7.4939999999999998</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="6"/>
-        <v>641959.2322744322</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+        <v>872</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="O11" s="9">
+        <v>11.452999999999999</v>
+      </c>
+      <c r="P11" s="9">
+        <v>10.725</v>
+      </c>
       <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="7"/>
-        <v>43046721</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="8"/>
-        <v>34437376.800000004</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="8"/>
-        <v>27549901.440000005</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="8"/>
-        <v>22039921.152000006</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="1"/>
-        <v>17631936.921600007</v>
+      <c r="D12" s="5">
+        <v>126</v>
+      </c>
+      <c r="E12" s="9">
+        <v>534.12099999999998</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4.05</v>
+      </c>
+      <c r="G12" s="9">
+        <v>24.747</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6.4459999999999997</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>14105549.537280006</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>11284439.629824005</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
-        <v>9027551.7038592044</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="5"/>
-        <v>7222041.3630873635</v>
+        <v>284</v>
+      </c>
+      <c r="J12" s="9">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="K12" s="9">
+        <v>30.341000000000001</v>
+      </c>
+      <c r="L12" s="9">
+        <v>11.023999999999999</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="6"/>
-        <v>5777633.0904698912</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+        <v>469</v>
+      </c>
+      <c r="N12" s="9">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="O12" s="9">
+        <v>27.568000000000001</v>
+      </c>
+      <c r="P12" s="9">
+        <v>14.962</v>
+      </c>
       <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="7"/>
-        <v>387420489</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="8"/>
-        <v>309936391.19999999</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="8"/>
-        <v>247949112.96000001</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="8"/>
-        <v>198359290.36800003</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>158687432.29440004</v>
+      <c r="D13" s="5">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1622.5170000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9.09</v>
+      </c>
+      <c r="G13" s="9">
+        <v>69.180999999999997</v>
+      </c>
+      <c r="H13" s="9">
+        <v>12.766999999999999</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="2"/>
-        <v>126949945.83552003</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="3"/>
-        <v>101559956.66841602</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
-        <v>81247965.334732831</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="5"/>
-        <v>64998372.267786264</v>
+        <v>107</v>
+      </c>
+      <c r="J13" s="9">
+        <v>7.2519999999999998</v>
+      </c>
+      <c r="K13" s="9">
+        <v>76.262</v>
+      </c>
+      <c r="L13" s="9">
+        <v>15.12</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="6"/>
-        <v>51998697.814229012</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="N13" s="9">
+        <v>9.0350000000000001</v>
+      </c>
+      <c r="O13" s="9">
+        <v>83.948999999999998</v>
+      </c>
+      <c r="P13" s="9">
+        <v>22.722999999999999</v>
+      </c>
       <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="8"/>
-        <v>800000000</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="8"/>
-        <v>640000000</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>512000000</v>
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3932.7840000000001</v>
+      </c>
+      <c r="F14" s="9">
+        <v>18.844000000000001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>155.25</v>
+      </c>
+      <c r="H14" s="9">
+        <v>22.978000000000002</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="2"/>
-        <v>409600000</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>327680000</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
-        <v>262144000</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="5"/>
-        <v>209715200</v>
+        <v>27</v>
+      </c>
+      <c r="J14" s="9">
+        <v>10.093</v>
+      </c>
+      <c r="K14" s="9">
+        <v>182.04599999999999</v>
+      </c>
+      <c r="L14" s="9">
+        <v>19.236000000000001</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="6"/>
-        <v>167772160</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="N14" s="9">
+        <v>14.478999999999999</v>
+      </c>
+      <c r="O14" s="9">
+        <v>227.58799999999999</v>
+      </c>
+      <c r="P14" s="9">
+        <v>33.811</v>
+      </c>
       <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>22</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="8"/>
-        <v>800000000</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="8"/>
-        <v>640000000</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>512000000</v>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>35.222999999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>431.92500000000001</v>
+      </c>
+      <c r="H15" s="9">
+        <v>35.551000000000002</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="2"/>
-        <v>409600000</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="3"/>
-        <v>327680000</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
-        <v>262144000</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="5"/>
-        <v>209715200</v>
+        <v>6</v>
+      </c>
+      <c r="J15" s="9">
+        <v>13.534000000000001</v>
+      </c>
+      <c r="K15" s="9">
+        <v>489.21499999999997</v>
+      </c>
+      <c r="L15" s="9">
+        <v>25.227</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="6"/>
-        <v>167772160</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="N15" s="9">
+        <v>27.721</v>
+      </c>
+      <c r="O15" s="9">
+        <v>672.34799999999996</v>
+      </c>
+      <c r="P15" s="9">
+        <v>53.951999999999998</v>
+      </c>
       <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>24</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="8"/>
-        <v>800000000</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="8"/>
-        <v>640000000</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="1"/>
-        <v>512000000</v>
-      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7">
-        <f t="shared" si="2"/>
-        <v>409600000</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="3"/>
-        <v>327680000</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
-        <v>262144000</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="5"/>
-        <v>209715200</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3.403</v>
+      </c>
+      <c r="K16" s="9">
+        <v>805.33900000000006</v>
+      </c>
+      <c r="L16" s="9">
+        <v>9.6519999999999992</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="6"/>
-        <v>167772160</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="9">
+        <v>10.493</v>
+      </c>
+      <c r="O16" s="9">
+        <v>670.22900000000004</v>
+      </c>
+      <c r="P16" s="9">
+        <v>31.984000000000002</v>
+      </c>
       <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5705,675 +6366,682 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252759C0-5260-4DB3-822F-7F843478F438}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6.85546875" style="1"/>
-    <col min="4" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6.85546875" style="1"/>
+    <col min="1" max="4" width="6.85546875" style="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="6.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <f>3^C5</f>
-        <v>9</v>
+      <c r="D5" s="1">
+        <v>1115</v>
       </c>
       <c r="E5" s="7">
-        <f>D5*0.8</f>
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:M16" si="0">E5*0.8</f>
-        <v>5.7600000000000007</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6080000000000005</v>
+        <v>6</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>3.6864000000000008</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9491200000000006</v>
+        <v>528</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3592960000000005</v>
+        <v>6</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8874368000000006</v>
+        <v>6</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5099494400000006</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2079595520000006</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="M5" s="5">
+        <v>478</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7">
+        <v>6</v>
+      </c>
+      <c r="P5" s="7">
+        <v>6</v>
+      </c>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:D13" si="1">3^C6</f>
-        <v>81</v>
+      <c r="D6" s="5">
+        <v>1738</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:G16" si="2">D6*0.8</f>
-        <v>64.8</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="2"/>
-        <v>51.84</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>41.472000000000008</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>33.177600000000005</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="0"/>
-        <v>26.542080000000006</v>
+        <v>1337</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>21.233664000000005</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>16.986931200000004</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>13.589544960000005</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>10.871635968000005</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+        <v>1039</v>
+      </c>
+      <c r="N6" s="7">
+        <v>11</v>
+      </c>
+      <c r="O6" s="7">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7">
+        <v>11</v>
+      </c>
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="1"/>
-        <v>729</v>
+      <c r="D7" s="5">
+        <v>2280</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="2"/>
-        <v>583.20000000000005</v>
+        <v>150</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="2"/>
-        <v>466.56000000000006</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>373.24800000000005</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>298.59840000000003</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>238.87872000000004</v>
+        <v>1831</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>191.10297600000004</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>152.88238080000005</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="0"/>
-        <v>122.30590464000005</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="0"/>
-        <v>97.844723712000047</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+        <v>1578</v>
+      </c>
+      <c r="N7" s="7">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7">
+        <v>17</v>
+      </c>
       <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="1"/>
-        <v>6561</v>
+      <c r="D8" s="5">
+        <v>2112</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="2"/>
-        <v>5248.8</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="2"/>
-        <v>4199.04</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>3359.232</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>2687.3856000000001</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="0"/>
-        <v>2149.9084800000001</v>
+        <v>1989</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>1719.9267840000002</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>1375.9414272000004</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="0"/>
-        <v>1100.7531417600003</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="0"/>
-        <v>880.60251340800028</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+        <v>1925</v>
+      </c>
+      <c r="N8" s="7">
+        <v>22</v>
+      </c>
+      <c r="O8" s="7">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7">
+        <v>22</v>
+      </c>
       <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="1"/>
-        <v>59049</v>
+      <c r="D9" s="5">
+        <v>1321</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="2"/>
-        <v>47239.200000000004</v>
+        <v>1136</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="2"/>
-        <v>37791.360000000008</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>30233.088000000007</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>24186.470400000006</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="0"/>
-        <v>19349.176320000006</v>
+        <v>1786</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>15479.341056000005</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>12383.472844800004</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="0"/>
-        <v>9906.7782758400044</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="0"/>
-        <v>7925.4226206720041</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+        <v>1891</v>
+      </c>
+      <c r="N9" s="7">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7">
+        <v>30</v>
+      </c>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>531441</v>
+      <c r="D10" s="5">
+        <v>743</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="2"/>
-        <v>425152.80000000005</v>
+        <v>2881</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
-        <v>340122.24000000005</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>272097.79200000007</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>217678.23360000007</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="0"/>
-        <v>174142.58688000008</v>
+        <v>1266</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>139314.06950400007</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>111451.25560320006</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="0"/>
-        <v>89161.004482560049</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="0"/>
-        <v>71328.803586048045</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+        <v>1396</v>
+      </c>
+      <c r="N10" s="7">
+        <v>40</v>
+      </c>
+      <c r="O10" s="7">
+        <v>105</v>
+      </c>
+      <c r="P10" s="7">
+        <v>39</v>
+      </c>
       <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="1"/>
-        <v>4782969</v>
+      <c r="D11" s="5">
+        <v>312</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="2"/>
-        <v>3826375.2</v>
+        <v>7944</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="2"/>
-        <v>3061100.16</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>2448880.128</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>1959104.1024000002</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="0"/>
-        <v>1567283.2819200002</v>
+        <v>720</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>1253826.6255360001</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>1003061.3004288002</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7">
-        <f t="shared" si="0"/>
-        <v>802449.04034304013</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="0"/>
-        <v>641959.2322744322</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+        <v>872</v>
+      </c>
+      <c r="N11" s="7">
+        <v>59</v>
+      </c>
+      <c r="O11" s="7">
+        <v>229</v>
+      </c>
+      <c r="P11" s="7">
+        <v>53</v>
+      </c>
       <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="1"/>
-        <v>43046721</v>
+      <c r="D12" s="5">
+        <v>126</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="2"/>
-        <v>34437376.800000004</v>
+        <v>19076</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="2"/>
-        <v>27549901.440000005</v>
+        <v>103</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>22039921.152000006</v>
+        <v>650</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>17631936.921600007</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="0"/>
-        <v>14105549.537280006</v>
+        <v>284</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>11284439.629824005</v>
+        <v>99</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="0"/>
-        <v>9027551.7038592044</v>
+        <v>712</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" si="0"/>
-        <v>7222041.3630873635</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="0"/>
-        <v>5777633.0904698912</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+        <v>469</v>
+      </c>
+      <c r="N12" s="7">
+        <v>87</v>
+      </c>
+      <c r="O12" s="7">
+        <v>543</v>
+      </c>
+      <c r="P12" s="7">
+        <v>75</v>
+      </c>
       <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="1"/>
-        <v>387420489</v>
+      <c r="D13" s="5">
+        <v>34</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="2"/>
-        <v>309936391.19999999</v>
+        <v>51102</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="2"/>
-        <v>247949112.96000001</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>198359290.36800003</v>
+        <v>1750</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>158687432.29440004</v>
+        <v>148</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="0"/>
-        <v>126949945.83552003</v>
+        <v>107</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>101559956.66841602</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="0"/>
-        <v>81247965.334732831</v>
+        <v>1744</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="0"/>
-        <v>64998372.267786264</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="0"/>
-        <v>51998697.814229012</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="N13" s="7">
+        <v>151</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1608</v>
+      </c>
+      <c r="P13" s="7">
+        <v>114</v>
+      </c>
       <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
       <c r="E14" s="7">
-        <v>1000000000</v>
+        <v>104154</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="2"/>
-        <v>800000000</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>640000000</v>
+        <v>3850</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>512000000</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="0"/>
-        <v>409600000</v>
+        <v>27</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>327680000</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="0"/>
-        <v>262144000</v>
+        <v>4087</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="0"/>
-        <v>209715200</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="0"/>
-        <v>167772160</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="N14" s="7">
+        <v>238</v>
+      </c>
+      <c r="O14" s="7">
+        <v>4237</v>
+      </c>
+      <c r="P14" s="7">
+        <v>170</v>
+      </c>
       <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>22</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>1000000000</v>
-      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
-        <v>800000000</v>
+        <v>821</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>640000000</v>
+        <v>10347</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>512000000</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>409600000</v>
+        <v>6</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="0"/>
-        <v>327680000</v>
+        <v>277</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="0"/>
-        <v>262144000</v>
+        <v>10712</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="0"/>
-        <v>209715200</v>
+        <v>187</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="0"/>
-        <v>167772160</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="N15" s="7">
+        <v>450</v>
+      </c>
+      <c r="O15" s="7">
+        <v>12083</v>
+      </c>
+      <c r="P15" s="7">
+        <v>273</v>
+      </c>
       <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>24</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="2"/>
-        <v>800000000</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="2"/>
-        <v>640000000</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>512000000</v>
-      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7">
-        <f t="shared" si="0"/>
-        <v>409600000</v>
+        <v>1</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="0"/>
-        <v>327680000</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="0"/>
-        <v>262144000</v>
+        <v>17501</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="0"/>
-        <v>209715200</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="0"/>
-        <v>167772160</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>178</v>
+      </c>
+      <c r="O16" s="7">
+        <v>12551</v>
+      </c>
+      <c r="P16" s="7">
+        <v>166</v>
+      </c>
       <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
